--- a/rare vasc plants.xlsx
+++ b/rare vasc plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teddy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teddy\Desktop\boopz\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C439F04E-8477-449A-A774-779EA0650DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7AFEA-99C0-431B-8830-66AC6B8E4D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F0331B-345B-419F-AD87-96F7465159FF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{D3F0331B-345B-419F-AD87-96F7465159FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4394,7 +4394,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -4709,7 +4709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4720,8 +4720,8 @@
   <dimension ref="A1:S267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
